--- a/docs/2320110201_이수민_개발산출물_V2.xlsx
+++ b/docs/2320110201_이수민_개발산출물_V2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\data8316-13\Desktop\수업자료\2024-2학년1학기\이협건교수님-융합프로젝트실습1\융합프로젝트\240327산출물 제출항목\제출본\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\data8316-13\Desktop\projects\spring\WordBook_Spring\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{86EEE7BA-1504-4D93-8B25-41FABF8531D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E7E65FA-0BA4-458C-855D-113E452FA7F3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12810" windowWidth="16440" windowHeight="28320" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="10095" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴구조도" sheetId="7" r:id="rId1"/>
@@ -922,7 +921,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
   </numFmts>
@@ -2479,10 +2478,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2836,12 +2831,6 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2849,180 +2838,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -3053,12 +2868,196 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{B22D73FF-81AC-41D2-938D-48671F80FAC1}"/>
-    <cellStyle name="표준 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="표준_Sheet3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 4" xfId="2"/>
+    <cellStyle name="표준_Sheet3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3467,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE921F22-7F00-44F3-908D-55E1DD867C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3485,22 +3484,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="178"/>
     </row>
     <row r="2" spans="1:8" ht="18" thickBot="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3523,43 +3522,43 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A4" s="192"/>
-      <c r="B4" s="195" t="s">
+      <c r="A4" s="197"/>
+      <c r="B4" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="73"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="17.25">
-      <c r="A5" s="192"/>
-      <c r="B5" s="196"/>
-      <c r="C5" s="92" t="s">
+      <c r="A5" s="197"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
         <v>15</v>
@@ -3567,13 +3566,13 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="17.25">
-      <c r="A6" s="192"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="92" t="s">
+      <c r="A6" s="197"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
         <v>13</v>
@@ -3581,13 +3580,13 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1">
-      <c r="A7" s="192"/>
-      <c r="B7" s="197"/>
-      <c r="C7" s="93" t="s">
+      <c r="A7" s="197"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
         <v>13</v>
@@ -3595,15 +3594,15 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="18.2" customHeight="1" thickBot="1">
-      <c r="A8" s="192"/>
-      <c r="B8" s="182" t="s">
+      <c r="A8" s="197"/>
+      <c r="B8" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
         <v>15</v>
@@ -3611,9 +3610,9 @@
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="17.25">
-      <c r="A9" s="192"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="174" t="s">
+      <c r="A9" s="197"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="179" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="4"/>
@@ -3625,13 +3624,13 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="17.25">
-      <c r="A10" s="192"/>
-      <c r="B10" s="183"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="177" t="s">
+      <c r="A10" s="197"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
         <v>15</v>
@@ -3639,11 +3638,11 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="17.25">
-      <c r="A11" s="192"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="58" t="s">
+      <c r="A11" s="197"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="57" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="14"/>
@@ -3653,11 +3652,11 @@
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="18" thickBot="1">
-      <c r="A12" s="192"/>
-      <c r="B12" s="183"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="54" t="s">
+      <c r="A12" s="197"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="6"/>
@@ -3667,27 +3666,27 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="20.45" customHeight="1">
-      <c r="A13" s="192"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="180" t="s">
+      <c r="A13" s="197"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="65" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="20.45" customHeight="1">
-      <c r="A14" s="192"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="63" t="s">
+      <c r="A14" s="197"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="63"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="14"/>
       <c r="G14" s="16" t="s">
         <v>15</v>
@@ -3695,26 +3694,26 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A15" s="192"/>
-      <c r="B15" s="183"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="61" t="s">
+      <c r="A15" s="197"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="59" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="20.45" customHeight="1">
-      <c r="A16" s="192"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="194" t="s">
+      <c r="A16" s="197"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="88"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="19"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
@@ -3723,13 +3722,13 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="18.2" customHeight="1">
-      <c r="A17" s="192"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="186" t="s">
+      <c r="A17" s="197"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="95"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
         <v>15</v>
@@ -3737,11 +3736,11 @@
       <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1">
-      <c r="A18" s="192"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="119" t="s">
+      <c r="A18" s="197"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="118" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="6"/>
@@ -3751,60 +3750,60 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="17.25">
-      <c r="A19" s="192"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="188" t="s">
+      <c r="A19" s="197"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65" t="s">
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="103"/>
+      <c r="H19" s="102"/>
     </row>
     <row r="20" spans="1:8" ht="17.25">
-      <c r="A20" s="192"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="89" t="s">
+      <c r="A20" s="197"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63" t="s">
+      <c r="E20" s="57"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="96"/>
+      <c r="H20" s="95"/>
     </row>
     <row r="21" spans="1:8" ht="17.25">
-      <c r="A21" s="192"/>
-      <c r="B21" s="184"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="89" t="s">
+      <c r="A21" s="197"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="63" t="s">
+      <c r="E21" s="57"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="97"/>
+      <c r="H21" s="96"/>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1">
-      <c r="A22" s="193"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="90" t="s">
+      <c r="A22" s="198"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="89" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="99" t="s">
+      <c r="F22" s="97"/>
+      <c r="G22" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="100"/>
+      <c r="H22" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3826,7 +3825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68CDAD8-046E-41C7-B543-CA1A76B40664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3847,553 +3846,561 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38.450000000000003" customHeight="1" thickBot="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204" t="s">
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="204" t="s">
+      <c r="G2" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="206" t="s">
+      <c r="J2" s="222" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" thickBot="1">
-      <c r="A3" s="200"/>
+      <c r="A3" s="216"/>
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="207"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="223"/>
     </row>
     <row r="4" spans="1:10" ht="18" thickBot="1">
       <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="I4" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="105"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="80">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="81">
+      <c r="A6" s="80">
         <v>3</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="204"/>
+      <c r="C6" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="I6" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="110"/>
+      <c r="J6" s="109"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="82">
+      <c r="A7" s="81">
         <v>4</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="204"/>
+      <c r="C7" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109" t="s">
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="110"/>
+      <c r="J7" s="109"/>
     </row>
     <row r="8" spans="1:10" ht="18" thickBot="1">
-      <c r="A8" s="83">
+      <c r="A8" s="82">
         <v>5</v>
       </c>
-      <c r="B8" s="210"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="205"/>
+      <c r="C8" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="111" t="s">
+      <c r="H8" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="127" t="s">
+      <c r="I8" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="112"/>
+      <c r="J8" s="111"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A9" s="79">
+      <c r="A9" s="78">
         <v>6</v>
       </c>
-      <c r="B9" s="211" t="s">
+      <c r="B9" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104" t="s">
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="115"/>
+      <c r="J9" s="114"/>
     </row>
     <row r="10" spans="1:10" ht="18" thickBot="1">
-      <c r="A10" s="76">
+      <c r="A10" s="75">
         <v>7</v>
       </c>
-      <c r="B10" s="212"/>
-      <c r="C10" s="215" t="s">
+      <c r="B10" s="207"/>
+      <c r="C10" s="210" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="116" t="s">
+      <c r="G10" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="H10" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="104" t="s">
+      <c r="I10" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="117"/>
+      <c r="J10" s="116"/>
     </row>
     <row r="11" spans="1:10" ht="17.850000000000001" customHeight="1">
-      <c r="A11" s="77">
+      <c r="A11" s="76">
         <v>8</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="186" t="s">
+      <c r="B11" s="208"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="95" t="s">
+      <c r="E11" s="88"/>
+      <c r="F11" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="118"/>
+      <c r="J11" s="117"/>
     </row>
     <row r="12" spans="1:10" ht="19.149999999999999" customHeight="1">
-      <c r="A12" s="76">
+      <c r="A12" s="75">
         <v>9</v>
       </c>
-      <c r="B12" s="212"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="89" t="s">
+      <c r="B12" s="207"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="95" t="s">
+      <c r="F12" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="95" t="s">
+      <c r="G12" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="95" t="s">
+      <c r="H12" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="118"/>
+      <c r="J12" s="117"/>
     </row>
     <row r="13" spans="1:10" ht="19.149999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="77">
+      <c r="A13" s="76">
         <v>10</v>
       </c>
-      <c r="B13" s="212"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="119" t="s">
+      <c r="B13" s="207"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="120" t="s">
+      <c r="G13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="120" t="s">
+      <c r="H13" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="127" t="s">
+      <c r="I13" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="121"/>
+      <c r="J13" s="120"/>
     </row>
     <row r="14" spans="1:10" ht="18" thickBot="1">
-      <c r="A14" s="76">
+      <c r="A14" s="75">
         <v>11</v>
       </c>
-      <c r="B14" s="212"/>
-      <c r="C14" s="194" t="s">
+      <c r="B14" s="207"/>
+      <c r="C14" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107" t="s">
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="107" t="s">
+      <c r="G14" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="107" t="s">
+      <c r="H14" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="104" t="s">
+      <c r="I14" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="108"/>
+      <c r="J14" s="107"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="77">
+      <c r="A15" s="76">
         <v>12</v>
       </c>
-      <c r="B15" s="213"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="109" t="s">
+      <c r="B15" s="208"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109" t="s">
+      <c r="E15" s="108"/>
+      <c r="F15" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H15" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="110"/>
+      <c r="J15" s="109"/>
     </row>
     <row r="16" spans="1:10" ht="18" thickBot="1">
-      <c r="A16" s="76">
+      <c r="A16" s="75">
         <v>13</v>
       </c>
-      <c r="B16" s="212"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="122" t="s">
+      <c r="B16" s="207"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122" t="s">
+      <c r="E16" s="121"/>
+      <c r="F16" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="122" t="s">
+      <c r="G16" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="122" t="s">
+      <c r="H16" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="127" t="s">
+      <c r="I16" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="123"/>
+      <c r="J16" s="122"/>
     </row>
     <row r="17" spans="1:10" ht="18.2" customHeight="1">
-      <c r="A17" s="77">
+      <c r="A17" s="76">
         <v>14</v>
       </c>
-      <c r="B17" s="213"/>
-      <c r="C17" s="215" t="s">
+      <c r="B17" s="208"/>
+      <c r="C17" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116" t="s">
+      <c r="D17" s="123"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="116" t="s">
+      <c r="G17" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="116" t="s">
+      <c r="H17" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="104" t="s">
+      <c r="I17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="117"/>
+      <c r="J17" s="116"/>
     </row>
     <row r="18" spans="1:10" ht="18.2" customHeight="1" thickBot="1">
-      <c r="A18" s="76">
+      <c r="A18" s="75">
         <v>15</v>
       </c>
-      <c r="B18" s="212"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="186" t="s">
+      <c r="B18" s="207"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95" t="s">
+      <c r="E18" s="94"/>
+      <c r="F18" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G18" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="95" t="s">
+      <c r="H18" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="104" t="s">
+      <c r="I18" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="118"/>
+      <c r="J18" s="117"/>
     </row>
     <row r="19" spans="1:10" ht="18.2" customHeight="1" thickBot="1">
-      <c r="A19" s="77">
+      <c r="A19" s="76">
         <v>16</v>
       </c>
-      <c r="B19" s="213"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="119" t="s">
+      <c r="B19" s="208"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="120" t="s">
+      <c r="F19" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="120" t="s">
+      <c r="G19" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="120" t="s">
+      <c r="H19" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="127" t="s">
+      <c r="I19" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="121"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="77">
+      <c r="A20" s="76">
         <v>17</v>
       </c>
-      <c r="B20" s="212"/>
-      <c r="C20" s="194" t="s">
+      <c r="B20" s="207"/>
+      <c r="C20" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="116" t="s">
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="116" t="s">
+      <c r="G20" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="116" t="s">
+      <c r="H20" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="104" t="s">
+      <c r="I20" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="117"/>
+      <c r="J20" s="116"/>
     </row>
     <row r="21" spans="1:10" ht="17.25">
-      <c r="A21" s="76">
+      <c r="A21" s="75">
         <v>18</v>
       </c>
-      <c r="B21" s="212"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="89" t="s">
+      <c r="B21" s="207"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="95" t="s">
+      <c r="E21" s="88"/>
+      <c r="F21" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="95" t="s">
+      <c r="G21" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="95" t="s">
+      <c r="H21" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="104" t="s">
+      <c r="I21" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="118"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="77">
+      <c r="A22" s="76">
         <v>19</v>
       </c>
-      <c r="B22" s="212"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="89" t="s">
+      <c r="B22" s="207"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="95" t="s">
+      <c r="E22" s="88"/>
+      <c r="F22" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="95" t="s">
+      <c r="G22" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="95" t="s">
+      <c r="H22" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="104" t="s">
+      <c r="I22" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="118"/>
+      <c r="J22" s="117"/>
     </row>
     <row r="23" spans="1:10" ht="18" thickBot="1">
-      <c r="A23" s="78">
+      <c r="A23" s="77">
         <v>20</v>
       </c>
-      <c r="B23" s="214"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="90" t="s">
+      <c r="B23" s="209"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90" t="s">
+      <c r="E23" s="89"/>
+      <c r="F23" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="90" t="s">
+      <c r="G23" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="90" t="s">
+      <c r="H23" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="127" t="s">
+      <c r="I23" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="125"/>
+      <c r="J23" s="124"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="C24" s="74"/>
-    </row>
-    <row r="30" spans="1:10" s="70" customFormat="1"/>
+      <c r="C24" s="73"/>
+    </row>
+    <row r="30" spans="1:10" s="69" customFormat="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B23"/>
     <mergeCell ref="C10:C13"/>
@@ -4402,14 +4409,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4418,7 +4417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B535C2-0A68-4C29-B094-97CB7E555908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -4427,1070 +4426,1065 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15" style="128" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="128" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="128" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="128" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="128" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="128" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="128" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="128" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="128" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="128" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.625" style="128" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="128" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" style="128" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.75" style="128"/>
+    <col min="1" max="1" width="15" style="127" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="127" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="127" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="127" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="127" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="127" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="127" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.75" style="127" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="127" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="127" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="127" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="127" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="127" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.75" style="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="49.5">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="224" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="130" t="s">
+      <c r="F2" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="130" t="s">
+      <c r="H2" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="130" t="s">
+      <c r="J2" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="130" t="s">
+      <c r="K2" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="130" t="s">
+      <c r="L2" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="132" t="s">
+      <c r="M2" s="131" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="226" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="228" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="135" t="s">
+      <c r="E3" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="135">
+      <c r="F3" s="134">
         <v>10</v>
       </c>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135" t="s">
+      <c r="G3" s="134"/>
+      <c r="H3" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="135" t="s">
+      <c r="J3" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="228"/>
-      <c r="B4" s="223"/>
-      <c r="C4" s="136" t="s">
+      <c r="A4" s="227"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="136">
+      <c r="F4" s="135">
         <v>20</v>
       </c>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136" t="s">
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="228"/>
-      <c r="B5" s="223"/>
-      <c r="C5" s="136" t="s">
+      <c r="A5" s="227"/>
+      <c r="B5" s="229"/>
+      <c r="C5" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="136">
+      <c r="F5" s="135">
         <v>100</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136" t="s">
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="228"/>
-      <c r="B6" s="223"/>
-      <c r="C6" s="136" t="s">
+      <c r="A6" s="227"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="137">
+      <c r="F6" s="136">
         <v>100</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136" t="s">
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="228"/>
-      <c r="B7" s="223"/>
-      <c r="C7" s="136" t="s">
+      <c r="A7" s="227"/>
+      <c r="B7" s="229"/>
+      <c r="C7" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="136">
+      <c r="F7" s="135">
         <v>20</v>
       </c>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136" t="s">
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="228"/>
-      <c r="B8" s="223"/>
-      <c r="C8" s="136" t="s">
+      <c r="A8" s="227"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="136">
+      <c r="F8" s="135">
         <v>20</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="228"/>
-      <c r="B9" s="223"/>
-      <c r="C9" s="136" t="s">
+      <c r="A9" s="227"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="136" t="s">
+      <c r="E9" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136" t="s">
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="136"/>
+      <c r="M9" s="135"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="228"/>
-      <c r="B10" s="223"/>
-      <c r="C10" s="136" t="s">
+      <c r="A10" s="227"/>
+      <c r="B10" s="229"/>
+      <c r="C10" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="136" t="s">
+      <c r="D10" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="136" t="s">
+      <c r="E10" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="136">
+      <c r="F10" s="135">
         <v>20</v>
       </c>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="228"/>
-      <c r="B11" s="223"/>
-      <c r="C11" s="136" t="s">
+      <c r="A11" s="227"/>
+      <c r="B11" s="229"/>
+      <c r="C11" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136" t="s">
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="M11" s="136"/>
+      <c r="M11" s="135"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="226" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="224" t="s">
+      <c r="B12" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="135" t="s">
+      <c r="E12" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="135">
+      <c r="F12" s="134">
         <v>100</v>
       </c>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135" t="s">
+      <c r="G12" s="134"/>
+      <c r="H12" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="135" t="s">
+      <c r="I12" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="135" t="s">
+      <c r="J12" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="228"/>
-      <c r="B13" s="223"/>
-      <c r="C13" s="138" t="s">
+      <c r="A13" s="227"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="138" t="s">
+      <c r="E13" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="138">
+      <c r="F13" s="137">
         <v>4000</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138" t="s">
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138" t="s">
+      <c r="J13" s="137"/>
+      <c r="K13" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="228"/>
-      <c r="B14" s="223"/>
-      <c r="C14" s="136" t="s">
+      <c r="A14" s="227"/>
+      <c r="B14" s="229"/>
+      <c r="C14" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="136" t="s">
+      <c r="E14" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="136">
+      <c r="F14" s="135">
         <v>3</v>
       </c>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136" t="s">
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136" t="s">
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="136"/>
+      <c r="M14" s="135"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="228"/>
-      <c r="B15" s="223"/>
-      <c r="C15" s="136" t="s">
+      <c r="A15" s="227"/>
+      <c r="B15" s="229"/>
+      <c r="C15" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="136" t="s">
+      <c r="D15" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="136" t="s">
+      <c r="E15" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="136">
+      <c r="F15" s="135">
         <v>5000</v>
       </c>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136" t="s">
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="M15" s="136"/>
+      <c r="M15" s="135"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="222" t="s">
+      <c r="A16" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="224" t="s">
+      <c r="B16" s="228" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="135" t="s">
+      <c r="D16" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135" t="s">
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="135" t="s">
+      <c r="I16" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="135" t="s">
+      <c r="J16" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="223"/>
-      <c r="B17" s="223"/>
-      <c r="C17" s="138" t="s">
+      <c r="A17" s="229"/>
+      <c r="B17" s="229"/>
+      <c r="C17" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="138" t="s">
+      <c r="D17" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="138" t="s">
+      <c r="E17" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="138">
+      <c r="F17" s="137">
         <v>20</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138" t="s">
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138" t="s">
+      <c r="J17" s="137"/>
+      <c r="K17" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="223"/>
-      <c r="B18" s="223"/>
-      <c r="C18" s="139" t="s">
+      <c r="A18" s="229"/>
+      <c r="B18" s="229"/>
+      <c r="C18" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="139" t="s">
+      <c r="D18" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="139" t="s">
+      <c r="E18" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139" t="s">
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139" t="s">
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="M18" s="139"/>
+      <c r="M18" s="138"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="228" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="228" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="133" t="s">
+      <c r="E19" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135" t="s">
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="135" t="s">
+      <c r="I19" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="J19" s="135" t="s">
+      <c r="J19" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="223"/>
-      <c r="B20" s="223"/>
-      <c r="C20" s="151" t="s">
+      <c r="A20" s="229"/>
+      <c r="B20" s="229"/>
+      <c r="C20" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="152" t="s">
+      <c r="D20" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="153" t="s">
+      <c r="E20" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152" t="s">
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="152" t="s">
+      <c r="I20" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="152" t="s">
+      <c r="J20" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="152" t="s">
+      <c r="K20" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="223"/>
-      <c r="B21" s="223"/>
-      <c r="C21" s="151" t="s">
+      <c r="A21" s="229"/>
+      <c r="B21" s="229"/>
+      <c r="C21" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="153" t="s">
+      <c r="E21" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="152">
+      <c r="F21" s="151">
         <v>20</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152" t="s">
+      <c r="G21" s="151"/>
+      <c r="H21" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="152" t="s">
+      <c r="I21" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="152" t="s">
+      <c r="J21" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="152"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="223"/>
-      <c r="B22" s="223"/>
-      <c r="C22" s="141" t="s">
+      <c r="A22" s="229"/>
+      <c r="B22" s="229"/>
+      <c r="C22" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="142" t="s">
+      <c r="E22" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="138">
+      <c r="F22" s="137">
         <v>100</v>
       </c>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138" t="s">
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138" t="s">
+      <c r="J22" s="137"/>
+      <c r="K22" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="224"/>
-      <c r="B23" s="224"/>
-      <c r="C23" s="154" t="s">
+      <c r="A23" s="228"/>
+      <c r="B23" s="228"/>
+      <c r="C23" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="155" t="s">
+      <c r="D23" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="156" t="s">
+      <c r="E23" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="155">
+      <c r="F23" s="154">
         <v>10</v>
       </c>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="225"/>
-      <c r="B24" s="225"/>
-      <c r="C24" s="154" t="s">
+      <c r="A24" s="233"/>
+      <c r="B24" s="233"/>
+      <c r="C24" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="155" t="s">
+      <c r="D24" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="156" t="s">
+      <c r="E24" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="155">
+      <c r="F24" s="154">
         <v>1</v>
       </c>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155" t="s">
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="219" t="s">
+      <c r="A25" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="219" t="s">
+      <c r="B25" s="230" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="143" t="s">
+      <c r="E25" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="144" t="s">
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="I25" s="143" t="s">
+      <c r="I25" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="J25" s="143" t="s">
+      <c r="J25" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="220"/>
-      <c r="B26" s="220"/>
-      <c r="C26" s="145" t="s">
+      <c r="A26" s="231"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="145" t="s">
+      <c r="D26" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="145">
+      <c r="F26" s="144">
         <v>4000</v>
       </c>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145" t="s">
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="J26" s="145"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="145"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="144"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="220"/>
-      <c r="B27" s="220"/>
-      <c r="C27" s="147" t="s">
+      <c r="A27" s="231"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="147" t="s">
+      <c r="D27" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="147" t="s">
+      <c r="E27" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="147">
+      <c r="F27" s="146">
         <v>10</v>
       </c>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147" t="s">
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="J27" s="147"/>
-      <c r="K27" s="148" t="s">
+      <c r="J27" s="146"/>
+      <c r="K27" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="L27" s="148"/>
-      <c r="M27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="146"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="220"/>
-      <c r="B28" s="220"/>
-      <c r="C28" s="145" t="s">
+      <c r="A28" s="231"/>
+      <c r="B28" s="231"/>
+      <c r="C28" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="145" t="s">
+      <c r="D28" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="145" t="s">
+      <c r="E28" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146" t="s">
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="M28" s="145"/>
+      <c r="M28" s="144"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="220"/>
-      <c r="B29" s="220"/>
-      <c r="C29" s="147" t="s">
+      <c r="A29" s="231"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="147" t="s">
+      <c r="D29" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="147" t="s">
+      <c r="E29" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="147">
+      <c r="F29" s="146">
         <v>10</v>
       </c>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147" t="s">
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="147"/>
-      <c r="K29" s="148" t="s">
+      <c r="J29" s="146"/>
+      <c r="K29" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="L29" s="148"/>
-      <c r="M29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="146"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="221"/>
-      <c r="B30" s="221"/>
-      <c r="C30" s="149" t="s">
+      <c r="A30" s="232"/>
+      <c r="B30" s="232"/>
+      <c r="C30" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="149" t="s">
+      <c r="D30" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="149" t="s">
+      <c r="E30" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149" t="s">
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="M30" s="149"/>
+      <c r="M30" s="148"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="219" t="s">
+      <c r="B31" s="230" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="143" t="s">
+      <c r="C31" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="143" t="s">
+      <c r="D31" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="143" t="s">
+      <c r="E31" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="143">
+      <c r="F31" s="142">
         <v>20</v>
       </c>
-      <c r="G31" s="143"/>
-      <c r="H31" s="144" t="s">
+      <c r="G31" s="142"/>
+      <c r="H31" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="143" t="s">
+      <c r="I31" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="143" t="s">
+      <c r="J31" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="220"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="145" t="s">
+      <c r="A32" s="231"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="145" t="s">
+      <c r="D32" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="145" t="s">
+      <c r="E32" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="145">
+      <c r="F32" s="144">
         <v>20</v>
       </c>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145" t="s">
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="145"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="145"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="144"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="220"/>
-      <c r="B33" s="220"/>
-      <c r="C33" s="147" t="s">
+      <c r="A33" s="231"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="146" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="147" t="s">
+      <c r="D33" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="147" t="s">
+      <c r="E33" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="147">
+      <c r="F33" s="146">
         <v>20</v>
       </c>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147" t="s">
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="147"/>
-      <c r="K33" s="148" t="s">
+      <c r="J33" s="146"/>
+      <c r="K33" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="L33" s="148"/>
-      <c r="M33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="146"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="220"/>
-      <c r="B34" s="220"/>
-      <c r="C34" s="145" t="s">
+      <c r="A34" s="231"/>
+      <c r="B34" s="231"/>
+      <c r="C34" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="145" t="s">
+      <c r="D34" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="145" t="s">
+      <c r="E34" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146" t="s">
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="M34" s="145"/>
+      <c r="M34" s="144"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="220"/>
-      <c r="B35" s="220"/>
-      <c r="C35" s="147" t="s">
+      <c r="A35" s="231"/>
+      <c r="B35" s="231"/>
+      <c r="C35" s="146" t="s">
         <v>174</v>
       </c>
-      <c r="D35" s="147" t="s">
+      <c r="D35" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="147" t="s">
+      <c r="E35" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="147">
+      <c r="F35" s="146">
         <v>10</v>
       </c>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147" t="s">
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="147"/>
-      <c r="K35" s="148" t="s">
+      <c r="J35" s="146"/>
+      <c r="K35" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="L35" s="148"/>
-      <c r="M35" s="147"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="146"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="221"/>
-      <c r="B36" s="221"/>
-      <c r="C36" s="149" t="s">
+      <c r="A36" s="232"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="149" t="s">
+      <c r="D36" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="149" t="s">
+      <c r="E36" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149" t="s">
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="M36" s="149"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="219" t="s">
+      <c r="A37" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="219" t="s">
+      <c r="B37" s="230" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="143" t="s">
+      <c r="C37" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="143" t="s">
+      <c r="D37" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="E37" s="143" t="s">
+      <c r="E37" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="143">
+      <c r="F37" s="142">
         <v>100</v>
       </c>
-      <c r="G37" s="143"/>
-      <c r="H37" s="144" t="s">
+      <c r="G37" s="142"/>
+      <c r="H37" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="I37" s="143" t="s">
+      <c r="I37" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="J37" s="143" t="s">
+      <c r="J37" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143"/>
+      <c r="K37" s="142"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="142"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="220"/>
-      <c r="B38" s="220"/>
-      <c r="C38" s="145" t="s">
+      <c r="A38" s="231"/>
+      <c r="B38" s="231"/>
+      <c r="C38" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="145" t="s">
+      <c r="D38" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="145" t="s">
+      <c r="E38" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="145">
+      <c r="F38" s="144">
         <v>20</v>
       </c>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145" t="s">
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="J38" s="145"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="145"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="145"/>
+      <c r="M38" s="144"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="221"/>
-      <c r="B39" s="221"/>
-      <c r="C39" s="147" t="s">
+      <c r="A39" s="232"/>
+      <c r="B39" s="232"/>
+      <c r="C39" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="147" t="s">
+      <c r="D39" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="E39" s="147" t="s">
+      <c r="E39" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="147">
+      <c r="F39" s="146">
         <v>20</v>
       </c>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147" t="s">
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="J39" s="147"/>
-      <c r="K39" s="148" t="s">
+      <c r="J39" s="146"/>
+      <c r="K39" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="L39" s="148"/>
-      <c r="M39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="A37:A39"/>
@@ -5501,6 +5495,11 @@
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="B19:B24"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5508,7 +5507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF45817-A722-407A-8AD7-F967F3D4A14B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5524,7 +5523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612396B8-7566-4D1E-8E0F-EE58B6E2A60D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5540,11 +5539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A074853-A5F3-46E2-BA07-0157AAFC7AAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5682,7 +5681,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>188</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -5707,7 +5706,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>189</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -5732,7 +5731,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -5757,7 +5756,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>190</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -5782,7 +5781,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>191</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -5832,7 +5831,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="51" t="s">
         <v>193</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -5857,7 +5856,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="156" t="s">
         <v>194</v>
       </c>
       <c r="B13" s="31" t="s">
@@ -5882,7 +5881,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="51" t="s">
         <v>195</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -6012,32 +6011,32 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="229" t="s">
+      <c r="A19" s="168" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="230" t="s">
+      <c r="B19" s="169" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="231" t="str">
+      <c r="C19" s="170" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
-      <c r="D19" s="232">
+      <c r="D19" s="171">
         <v>45383</v>
       </c>
-      <c r="E19" s="232">
+      <c r="E19" s="171">
         <v>45387</v>
       </c>
-      <c r="F19" s="233">
+      <c r="F19" s="172">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="234">
+      <c r="G19" s="173">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="175" t="s">
         <v>200</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -6062,7 +6061,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="175" t="s">
         <v>201</v>
       </c>
       <c r="B21" s="31" t="s">
@@ -6087,7 +6086,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="175" t="s">
         <v>202</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -6112,7 +6111,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="175" t="s">
         <v>203</v>
       </c>
       <c r="B23" s="31" t="s">
@@ -6137,7 +6136,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="175" t="s">
         <v>204</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -6162,7 +6161,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="175" t="s">
         <v>205</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -6187,7 +6186,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="175" t="s">
         <v>206</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -6212,7 +6211,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="167" t="s">
+      <c r="A27" s="234" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -6264,40 +6263,40 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="159" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="161" t="str">
+      <c r="C29" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
-      <c r="D29" s="162">
+      <c r="D29" s="161">
         <f>MIN(D30:D33)</f>
         <v>45387</v>
       </c>
-      <c r="E29" s="162">
+      <c r="E29" s="161">
         <f>MAX(E30:E33)</f>
         <v>45448</v>
       </c>
-      <c r="F29" s="163">
+      <c r="F29" s="162">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="G29" s="164">
+      <c r="G29" s="163">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="158" t="s">
+      <c r="A30" s="157" t="s">
         <v>207</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="166" t="str">
+      <c r="C30" s="165" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
@@ -6316,13 +6315,13 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="157" t="s">
         <v>208</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="166" t="str">
+      <c r="C31" s="165" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
@@ -6343,13 +6342,13 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="158" t="s">
+      <c r="A32" s="157" t="s">
         <v>209</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="166" t="str">
+      <c r="C32" s="165" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
@@ -6370,13 +6369,13 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="157" t="s">
         <v>210</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="166" t="str">
+      <c r="C33" s="165" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
@@ -6397,34 +6396,34 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="165" t="s">
+      <c r="A34" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="159" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="161" t="str">
+      <c r="C34" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
-      <c r="D34" s="162">
+      <c r="D34" s="161">
         <f>MIN(D35:D40)</f>
         <v>45390</v>
       </c>
-      <c r="E34" s="162">
+      <c r="E34" s="161">
         <f>MAX(E35:E40)</f>
         <v>45401</v>
       </c>
-      <c r="F34" s="163">
+      <c r="F34" s="162">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G34" s="164">
+      <c r="G34" s="163">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="175" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="31" t="s">
@@ -6449,32 +6448,32 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="236" t="s">
+      <c r="A36" s="175" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="230" t="s">
+      <c r="B36" s="169" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="231" t="str">
+      <c r="C36" s="170" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
-      <c r="D36" s="232">
+      <c r="D36" s="171">
         <v>45390</v>
       </c>
-      <c r="E36" s="232">
+      <c r="E36" s="171">
         <v>45398</v>
       </c>
-      <c r="F36" s="233">
+      <c r="F36" s="172">
         <f t="shared" ref="F36" si="2">E36-D36+1</f>
         <v>9</v>
       </c>
-      <c r="G36" s="234">
+      <c r="G36" s="173">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="175" t="s">
         <v>212</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -6499,7 +6498,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="168" t="s">
+      <c r="A38" s="236" t="s">
         <v>213</v>
       </c>
       <c r="B38" s="31" t="s">
@@ -6524,7 +6523,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="157" t="s">
+      <c r="A39" s="235" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="31" t="s">
@@ -6549,7 +6548,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="157" t="s">
+      <c r="A40" s="235" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="31" t="s">
@@ -6574,34 +6573,34 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="159" t="s">
+      <c r="A41" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="160" t="s">
+      <c r="B41" s="159" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="161" t="str">
+      <c r="C41" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
-      <c r="D41" s="162">
+      <c r="D41" s="161">
         <f>MIN(D42:D48)</f>
         <v>45413</v>
       </c>
-      <c r="E41" s="162">
+      <c r="E41" s="161">
         <f>MAX(E42:E48)</f>
         <v>45434</v>
       </c>
-      <c r="F41" s="163">
+      <c r="F41" s="162">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G41" s="164">
+      <c r="G41" s="163">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="169" t="s">
+      <c r="A42" s="166" t="s">
         <v>214</v>
       </c>
       <c r="B42" s="31" t="s">
@@ -6626,7 +6625,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="157" t="s">
+      <c r="A43" s="156" t="s">
         <v>215</v>
       </c>
       <c r="B43" s="31" t="s">
@@ -6651,7 +6650,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="156" t="s">
         <v>216</v>
       </c>
       <c r="B44" s="31" t="s">
@@ -6676,32 +6675,32 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="235" t="s">
+      <c r="A45" s="174" t="s">
         <v>217</v>
       </c>
-      <c r="B45" s="230" t="s">
+      <c r="B45" s="169" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="231" t="str">
+      <c r="C45" s="170" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
-      <c r="D45" s="232">
+      <c r="D45" s="171">
         <v>45415</v>
       </c>
-      <c r="E45" s="232">
+      <c r="E45" s="171">
         <v>45426</v>
       </c>
-      <c r="F45" s="233">
+      <c r="F45" s="172">
         <f t="shared" ref="F45" si="3">E45-D45+1</f>
         <v>12</v>
       </c>
-      <c r="G45" s="234">
+      <c r="G45" s="173">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="167" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -6726,7 +6725,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="170" t="s">
+      <c r="A47" s="167" t="s">
         <v>219</v>
       </c>
       <c r="B47" s="31" t="s">
@@ -6751,7 +6750,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="158" t="s">
+      <c r="A48" s="157" t="s">
         <v>220</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -6776,34 +6775,34 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="159" t="s">
+      <c r="A49" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="160" t="s">
+      <c r="B49" s="159" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="161" t="str">
+      <c r="C49" s="160" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
-      <c r="D49" s="162">
+      <c r="D49" s="161">
         <f>MIN(D50:D52)</f>
         <v>45422</v>
       </c>
-      <c r="E49" s="162">
+      <c r="E49" s="161">
         <f>MAX(E50:E52)</f>
         <v>45436</v>
       </c>
-      <c r="F49" s="163">
+      <c r="F49" s="162">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G49" s="164">
+      <c r="G49" s="163">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="157" t="s">
+      <c r="A50" s="156" t="s">
         <v>221</v>
       </c>
       <c r="B50" s="31" t="s">
@@ -6828,7 +6827,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="157" t="s">
+      <c r="A51" s="156" t="s">
         <v>222</v>
       </c>
       <c r="B51" s="31" t="s">
@@ -6853,7 +6852,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="157" t="s">
+      <c r="A52" s="156" t="s">
         <v>223</v>
       </c>
       <c r="B52" s="31" t="s">
@@ -6881,34 +6880,34 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="159" t="s">
+      <c r="A53" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="160" t="s">
+      <c r="B53" s="159" t="s">
         <v>184</v>
       </c>
-      <c r="C53" s="161" t="str">
+      <c r="C53" s="160" t="str">
         <f t="shared" ref="C53:C58" si="4">IF(G53=0,"Not Started",IF(G53&lt;1,"Progress",IF(G53=1,"Finished")))</f>
         <v>Not Started</v>
       </c>
-      <c r="D53" s="162">
+      <c r="D53" s="161">
         <f>MIN(D54:D58)</f>
         <v>45436</v>
       </c>
-      <c r="E53" s="162">
+      <c r="E53" s="161">
         <f>MAX(E54:E58)</f>
         <v>45448</v>
       </c>
-      <c r="F53" s="163">
+      <c r="F53" s="162">
         <f t="shared" ref="F53:F58" si="5">E53-D53+1</f>
         <v>13</v>
       </c>
-      <c r="G53" s="164">
+      <c r="G53" s="163">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="157" t="s">
+      <c r="A54" s="235" t="s">
         <v>225</v>
       </c>
       <c r="B54" s="31" t="s">
@@ -6933,7 +6932,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="157" t="s">
+      <c r="A55" s="235" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="31" t="s">
@@ -6958,7 +6957,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="157" t="s">
+      <c r="A56" s="235" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -6983,7 +6982,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="158" t="s">
+      <c r="A57" s="168" t="s">
         <v>226</v>
       </c>
       <c r="B57" s="31" t="s">
@@ -7008,7 +7007,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="157" t="s">
+      <c r="A58" s="235" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="31" t="s">

--- a/docs/2320110201_이수민_개발산출물_V2.xlsx
+++ b/docs/2320110201_이수민_개발산출물_V2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\data8316-13\Desktop\projects\spring\WordBook_Spring\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suminlee/Desktop/Projects/spring/WordBook/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7B6736-1539-C643-A4AD-F619DDD5ED97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="10095" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="21180" windowHeight="14600" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴구조도" sheetId="7" r:id="rId1"/>
@@ -921,9 +922,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yy/mm/dd"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -942,6 +943,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -979,6 +982,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1049,7 +1053,7 @@
       <b/>
       <sz val="32"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1057,7 +1061,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1066,7 +1070,7 @@
       <b/>
       <sz val="15"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1074,7 +1078,7 @@
     <font>
       <sz val="15"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1082,7 +1086,7 @@
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -2306,7 +2310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2374,7 +2378,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2393,10 +2397,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2410,10 +2414,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2443,10 +2447,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2457,7 +2461,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2810,10 +2814,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2828,15 +2832,8 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2846,10 +2843,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2868,180 +2865,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3052,12 +2875,189 @@
     <xf numFmtId="0" fontId="14" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
-    <cellStyle name="표준 4" xfId="2"/>
-    <cellStyle name="표준_Sheet3" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준_Sheet3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3466,36 +3466,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A1" s="176" t="s">
+    <row r="1" spans="1:8" ht="31" thickBot="1">
+      <c r="A1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="178"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="180"/>
+    </row>
+    <row r="2" spans="1:8" ht="19" thickBot="1">
       <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
@@ -3521,8 +3521,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="196" t="s">
+    <row r="3" spans="1:8" ht="18.5" customHeight="1" thickBot="1">
+      <c r="A3" s="198" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="58" t="s">
@@ -3537,9 +3537,9 @@
       </c>
       <c r="H3" s="68"/>
     </row>
-    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A4" s="197"/>
-      <c r="B4" s="200" t="s">
+    <row r="4" spans="1:8" ht="18.5" customHeight="1">
+      <c r="A4" s="199"/>
+      <c r="B4" s="202" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="90"/>
@@ -3551,9 +3551,9 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25">
-      <c r="A5" s="197"/>
-      <c r="B5" s="201"/>
+    <row r="5" spans="1:8" ht="18">
+      <c r="A5" s="199"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="91" t="s">
         <v>14</v>
       </c>
@@ -3565,9 +3565,9 @@
       </c>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" ht="17.25">
-      <c r="A6" s="197"/>
-      <c r="B6" s="201"/>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" s="199"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="91" t="s">
         <v>16</v>
       </c>
@@ -3579,9 +3579,9 @@
       </c>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:8" ht="18" thickBot="1">
-      <c r="A7" s="197"/>
-      <c r="B7" s="202"/>
+    <row r="7" spans="1:8" ht="19" thickBot="1">
+      <c r="A7" s="199"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="92" t="s">
         <v>17</v>
       </c>
@@ -3593,9 +3593,9 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="18.2" customHeight="1" thickBot="1">
-      <c r="A8" s="197"/>
-      <c r="B8" s="187" t="s">
+    <row r="8" spans="1:8" ht="18.25" customHeight="1" thickBot="1">
+      <c r="A8" s="199"/>
+      <c r="B8" s="189" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="85" t="s">
@@ -3609,10 +3609,10 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="17.25">
-      <c r="A9" s="197"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="179" t="s">
+    <row r="9" spans="1:8" ht="18">
+      <c r="A9" s="199"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="181" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="4"/>
@@ -3623,11 +3623,11 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="17.25">
-      <c r="A10" s="197"/>
-      <c r="B10" s="188"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="182" t="s">
+    <row r="10" spans="1:8" ht="18">
+      <c r="A10" s="199"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="184" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="57"/>
@@ -3637,11 +3637,11 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25">
-      <c r="A11" s="197"/>
-      <c r="B11" s="188"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="183"/>
+    <row r="11" spans="1:8" ht="19">
+      <c r="A11" s="199"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="185"/>
       <c r="E11" s="57" t="s">
         <v>22</v>
       </c>
@@ -3651,11 +3651,11 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="18" thickBot="1">
-      <c r="A12" s="197"/>
-      <c r="B12" s="188"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="184"/>
+    <row r="12" spans="1:8" ht="20" thickBot="1">
+      <c r="A12" s="199"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="186"/>
       <c r="E12" s="53" t="s">
         <v>23</v>
       </c>
@@ -3665,10 +3665,10 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="20.45" customHeight="1">
-      <c r="A13" s="197"/>
-      <c r="B13" s="188"/>
-      <c r="C13" s="185" t="s">
+    <row r="13" spans="1:8" ht="20.5" customHeight="1">
+      <c r="A13" s="199"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="187" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="86"/>
@@ -3679,10 +3679,10 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="20.45" customHeight="1">
-      <c r="A14" s="197"/>
-      <c r="B14" s="188"/>
-      <c r="C14" s="186"/>
+    <row r="14" spans="1:8" ht="20.5" customHeight="1">
+      <c r="A14" s="199"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="188"/>
       <c r="D14" s="62" t="s">
         <v>25</v>
       </c>
@@ -3693,10 +3693,10 @@
       </c>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A15" s="197"/>
-      <c r="B15" s="188"/>
-      <c r="C15" s="186"/>
+    <row r="15" spans="1:8" ht="20.5" customHeight="1" thickBot="1">
+      <c r="A15" s="199"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="188"/>
       <c r="D15" s="60" t="s">
         <v>26</v>
       </c>
@@ -3707,10 +3707,10 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="20.45" customHeight="1">
-      <c r="A16" s="197"/>
-      <c r="B16" s="189"/>
-      <c r="C16" s="199" t="s">
+    <row r="16" spans="1:8" ht="20.5" customHeight="1">
+      <c r="A16" s="199"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="201" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="87"/>
@@ -3721,11 +3721,11 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="18.2" customHeight="1">
-      <c r="A17" s="197"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="191" t="s">
+    <row r="17" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A17" s="199"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="193" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="94"/>
@@ -3735,11 +3735,11 @@
       </c>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1">
-      <c r="A18" s="197"/>
-      <c r="B18" s="189"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="192"/>
+    <row r="18" spans="1:8" ht="19" thickBot="1">
+      <c r="A18" s="199"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="194"/>
       <c r="E18" s="118" t="s">
         <v>29</v>
       </c>
@@ -3749,10 +3749,10 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25">
-      <c r="A19" s="197"/>
-      <c r="B19" s="189"/>
-      <c r="C19" s="193" t="s">
+    <row r="19" spans="1:8" ht="18">
+      <c r="A19" s="199"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="195" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="100"/>
@@ -3763,10 +3763,10 @@
       </c>
       <c r="H19" s="102"/>
     </row>
-    <row r="20" spans="1:8" ht="17.25">
-      <c r="A20" s="197"/>
-      <c r="B20" s="189"/>
-      <c r="C20" s="194"/>
+    <row r="20" spans="1:8" ht="18">
+      <c r="A20" s="199"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="196"/>
       <c r="D20" s="88" t="s">
         <v>31</v>
       </c>
@@ -3777,10 +3777,10 @@
       </c>
       <c r="H20" s="95"/>
     </row>
-    <row r="21" spans="1:8" ht="17.25">
-      <c r="A21" s="197"/>
-      <c r="B21" s="189"/>
-      <c r="C21" s="194"/>
+    <row r="21" spans="1:8" ht="18">
+      <c r="A21" s="199"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="196"/>
       <c r="D21" s="88" t="s">
         <v>32</v>
       </c>
@@ -3791,10 +3791,10 @@
       </c>
       <c r="H21" s="96"/>
     </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1">
-      <c r="A22" s="198"/>
-      <c r="B22" s="190"/>
-      <c r="C22" s="195"/>
+    <row r="22" spans="1:8" ht="19" thickBot="1">
+      <c r="A22" s="200"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="197"/>
       <c r="D22" s="89" t="s">
         <v>33</v>
       </c>
@@ -3825,68 +3825,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="34.125" customWidth="1"/>
-    <col min="6" max="6" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.450000000000003" customHeight="1" thickBot="1">
-      <c r="A1" s="214" t="s">
+    <row r="1" spans="1:10" ht="38.5" customHeight="1" thickBot="1">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="215" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.5" customHeight="1" thickBot="1">
+      <c r="A2" s="217" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="220" t="s">
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="220" t="s">
+      <c r="G2" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="220" t="s">
+      <c r="H2" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="220" t="s">
+      <c r="I2" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="222" t="s">
+      <c r="J2" s="224" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" thickBot="1">
-      <c r="A3" s="216"/>
+    <row r="3" spans="1:10" ht="19" thickBot="1">
+      <c r="A3" s="218"/>
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
@@ -3899,13 +3899,13 @@
       <c r="E3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="223"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" thickBot="1">
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="225"/>
+    </row>
+    <row r="4" spans="1:10" ht="19" thickBot="1">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="205" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="105"/>
@@ -3953,11 +3953,11 @@
       </c>
       <c r="J5" s="107"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="80">
         <v>3</v>
       </c>
-      <c r="B6" s="204"/>
+      <c r="B6" s="206"/>
       <c r="C6" s="91" t="s">
         <v>14</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="A7" s="81">
         <v>4</v>
       </c>
-      <c r="B7" s="204"/>
+      <c r="B7" s="206"/>
       <c r="C7" s="91" t="s">
         <v>16</v>
       </c>
@@ -4001,11 +4001,11 @@
       </c>
       <c r="J7" s="109"/>
     </row>
-    <row r="8" spans="1:10" ht="18" thickBot="1">
+    <row r="8" spans="1:10" ht="19" thickBot="1">
       <c r="A8" s="82">
         <v>5</v>
       </c>
-      <c r="B8" s="205"/>
+      <c r="B8" s="207"/>
       <c r="C8" s="92" t="s">
         <v>17</v>
       </c>
@@ -4025,11 +4025,11 @@
       </c>
       <c r="J8" s="111"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25" thickBot="1">
+    <row r="9" spans="1:10" ht="18" thickBot="1">
       <c r="A9" s="78">
         <v>6</v>
       </c>
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="208" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="112" t="s">
@@ -4051,12 +4051,12 @@
       </c>
       <c r="J9" s="114"/>
     </row>
-    <row r="10" spans="1:10" ht="18" thickBot="1">
+    <row r="10" spans="1:10" ht="19" thickBot="1">
       <c r="A10" s="75">
         <v>7</v>
       </c>
-      <c r="B10" s="207"/>
-      <c r="C10" s="210" t="s">
+      <c r="B10" s="209"/>
+      <c r="C10" s="212" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="115"/>
@@ -4075,13 +4075,13 @@
       </c>
       <c r="J10" s="116"/>
     </row>
-    <row r="11" spans="1:10" ht="17.850000000000001" customHeight="1">
+    <row r="11" spans="1:10" ht="17.75" customHeight="1">
       <c r="A11" s="76">
         <v>8</v>
       </c>
-      <c r="B11" s="208"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="191" t="s">
+      <c r="B11" s="210"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="193" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="88"/>
@@ -4099,13 +4099,13 @@
       </c>
       <c r="J11" s="117"/>
     </row>
-    <row r="12" spans="1:10" ht="19.149999999999999" customHeight="1">
+    <row r="12" spans="1:10" ht="19.25" customHeight="1">
       <c r="A12" s="75">
         <v>9</v>
       </c>
-      <c r="B12" s="207"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="191"/>
+      <c r="B12" s="209"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="193"/>
       <c r="E12" s="88" t="s">
         <v>22</v>
       </c>
@@ -4123,13 +4123,13 @@
       </c>
       <c r="J12" s="117"/>
     </row>
-    <row r="13" spans="1:10" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="13" spans="1:10" ht="19.25" customHeight="1" thickBot="1">
       <c r="A13" s="76">
         <v>10</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="192"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="194"/>
       <c r="E13" s="118" t="s">
         <v>67</v>
       </c>
@@ -4147,12 +4147,12 @@
       </c>
       <c r="J13" s="120"/>
     </row>
-    <row r="14" spans="1:10" ht="18" thickBot="1">
+    <row r="14" spans="1:10" ht="19" thickBot="1">
       <c r="A14" s="75">
         <v>11</v>
       </c>
-      <c r="B14" s="207"/>
-      <c r="C14" s="199" t="s">
+      <c r="B14" s="209"/>
+      <c r="C14" s="201" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="106"/>
@@ -4175,8 +4175,8 @@
       <c r="A15" s="76">
         <v>12</v>
       </c>
-      <c r="B15" s="208"/>
-      <c r="C15" s="194"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="196"/>
       <c r="D15" s="108" t="s">
         <v>72</v>
       </c>
@@ -4195,12 +4195,12 @@
       </c>
       <c r="J15" s="109"/>
     </row>
-    <row r="16" spans="1:10" ht="18" thickBot="1">
+    <row r="16" spans="1:10" ht="19" thickBot="1">
       <c r="A16" s="75">
         <v>13</v>
       </c>
-      <c r="B16" s="207"/>
-      <c r="C16" s="213"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="215"/>
       <c r="D16" s="121" t="s">
         <v>75</v>
       </c>
@@ -4219,12 +4219,12 @@
       </c>
       <c r="J16" s="122"/>
     </row>
-    <row r="17" spans="1:10" ht="18.2" customHeight="1">
+    <row r="17" spans="1:10" ht="18.25" customHeight="1">
       <c r="A17" s="76">
         <v>14</v>
       </c>
-      <c r="B17" s="208"/>
-      <c r="C17" s="210" t="s">
+      <c r="B17" s="210"/>
+      <c r="C17" s="212" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="123"/>
@@ -4243,13 +4243,13 @@
       </c>
       <c r="J17" s="116"/>
     </row>
-    <row r="18" spans="1:10" ht="18.2" customHeight="1" thickBot="1">
+    <row r="18" spans="1:10" ht="18.25" customHeight="1" thickBot="1">
       <c r="A18" s="75">
         <v>15</v>
       </c>
-      <c r="B18" s="207"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="191" t="s">
+      <c r="B18" s="209"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="193" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="94"/>
@@ -4267,13 +4267,13 @@
       </c>
       <c r="J18" s="117"/>
     </row>
-    <row r="19" spans="1:10" ht="18.2" customHeight="1" thickBot="1">
+    <row r="19" spans="1:10" ht="18.25" customHeight="1" thickBot="1">
       <c r="A19" s="76">
         <v>16</v>
       </c>
-      <c r="B19" s="208"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="192"/>
+      <c r="B19" s="210"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="194"/>
       <c r="E19" s="118" t="s">
         <v>29</v>
       </c>
@@ -4295,8 +4295,8 @@
       <c r="A20" s="76">
         <v>17</v>
       </c>
-      <c r="B20" s="207"/>
-      <c r="C20" s="199" t="s">
+      <c r="B20" s="209"/>
+      <c r="C20" s="201" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="123"/>
@@ -4315,12 +4315,12 @@
       </c>
       <c r="J20" s="116"/>
     </row>
-    <row r="21" spans="1:10" ht="17.25">
+    <row r="21" spans="1:10" ht="18">
       <c r="A21" s="75">
         <v>18</v>
       </c>
-      <c r="B21" s="207"/>
-      <c r="C21" s="194"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="196"/>
       <c r="D21" s="88" t="s">
         <v>86</v>
       </c>
@@ -4339,12 +4339,12 @@
       </c>
       <c r="J21" s="117"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="18">
       <c r="A22" s="76">
         <v>19</v>
       </c>
-      <c r="B22" s="207"/>
-      <c r="C22" s="194"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="196"/>
       <c r="D22" s="88" t="s">
         <v>32</v>
       </c>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="J22" s="117"/>
     </row>
-    <row r="23" spans="1:10" ht="18" thickBot="1">
+    <row r="23" spans="1:10" ht="19" thickBot="1">
       <c r="A23" s="77">
         <v>20</v>
       </c>
-      <c r="B23" s="209"/>
-      <c r="C23" s="195"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="197"/>
       <c r="D23" s="89" t="s">
         <v>33</v>
       </c>
@@ -4417,47 +4417,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="127" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="127" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="127" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="127" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="127" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="127" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="127" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="127" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="127" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="127" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="127" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="127" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="127" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.625" style="127" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="127" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" style="127" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.75" style="127"/>
+    <col min="7" max="7" width="11.1640625" style="127" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="127" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="127" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="127" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="127" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="127" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="127" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="49.5">
-      <c r="A1" s="224" t="s">
+    <row r="1" spans="1:13" ht="42">
+      <c r="A1" s="226" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1">
       <c r="A2" s="128" t="s">
@@ -4500,11 +4500,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="226" t="s">
+    <row r="3" spans="1:13" ht="16">
+      <c r="A3" s="228" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="230" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="132" t="s">
@@ -4534,8 +4534,8 @@
       <c r="M3" s="134"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="227"/>
-      <c r="B4" s="229"/>
+      <c r="A4" s="229"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="135" t="s">
         <v>111</v>
       </c>
@@ -4559,8 +4559,8 @@
       <c r="M4" s="135"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="227"/>
-      <c r="B5" s="229"/>
+      <c r="A5" s="229"/>
+      <c r="B5" s="231"/>
       <c r="C5" s="135" t="s">
         <v>114</v>
       </c>
@@ -4583,9 +4583,9 @@
       <c r="L5" s="135"/>
       <c r="M5" s="135"/>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="227"/>
-      <c r="B6" s="229"/>
+    <row r="6" spans="1:13" ht="16">
+      <c r="A6" s="229"/>
+      <c r="B6" s="231"/>
       <c r="C6" s="135" t="s">
         <v>116</v>
       </c>
@@ -4609,8 +4609,8 @@
       <c r="M6" s="135"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="227"/>
-      <c r="B7" s="229"/>
+      <c r="A7" s="229"/>
+      <c r="B7" s="231"/>
       <c r="C7" s="135" t="s">
         <v>118</v>
       </c>
@@ -4634,8 +4634,8 @@
       <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="227"/>
-      <c r="B8" s="229"/>
+      <c r="A8" s="229"/>
+      <c r="B8" s="231"/>
       <c r="C8" s="135" t="s">
         <v>120</v>
       </c>
@@ -4657,8 +4657,8 @@
       <c r="M8" s="135"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="227"/>
-      <c r="B9" s="229"/>
+      <c r="A9" s="229"/>
+      <c r="B9" s="231"/>
       <c r="C9" s="135" t="s">
         <v>122</v>
       </c>
@@ -4680,8 +4680,8 @@
       <c r="M9" s="135"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="227"/>
-      <c r="B10" s="229"/>
+      <c r="A10" s="229"/>
+      <c r="B10" s="231"/>
       <c r="C10" s="135" t="s">
         <v>126</v>
       </c>
@@ -4703,8 +4703,8 @@
       <c r="M10" s="135"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="227"/>
-      <c r="B11" s="229"/>
+      <c r="A11" s="229"/>
+      <c r="B11" s="231"/>
       <c r="C11" s="135" t="s">
         <v>127</v>
       </c>
@@ -4726,10 +4726,10 @@
       <c r="M11" s="135"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="226" t="s">
+      <c r="A12" s="228" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="230" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="134" t="s">
@@ -4759,8 +4759,8 @@
       <c r="M12" s="134"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="227"/>
-      <c r="B13" s="229"/>
+      <c r="A13" s="229"/>
+      <c r="B13" s="231"/>
       <c r="C13" s="137" t="s">
         <v>132</v>
       </c>
@@ -4786,8 +4786,8 @@
       <c r="M13" s="137"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="227"/>
-      <c r="B14" s="229"/>
+      <c r="A14" s="229"/>
+      <c r="B14" s="231"/>
       <c r="C14" s="135" t="s">
         <v>122</v>
       </c>
@@ -4813,8 +4813,8 @@
       <c r="M14" s="135"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="227"/>
-      <c r="B15" s="229"/>
+      <c r="A15" s="229"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="135" t="s">
         <v>127</v>
       </c>
@@ -4838,10 +4838,10 @@
       <c r="M15" s="135"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="226" t="s">
+      <c r="A16" s="228" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="228" t="s">
+      <c r="B16" s="230" t="s">
         <v>136</v>
       </c>
       <c r="C16" s="134" t="s">
@@ -4869,8 +4869,8 @@
       <c r="M16" s="134"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="229"/>
-      <c r="B17" s="229"/>
+      <c r="A17" s="231"/>
+      <c r="B17" s="231"/>
       <c r="C17" s="137" t="s">
         <v>139</v>
       </c>
@@ -4896,8 +4896,8 @@
       <c r="M17" s="137"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="229"/>
-      <c r="B18" s="229"/>
+      <c r="A18" s="231"/>
+      <c r="B18" s="231"/>
       <c r="C18" s="138" t="s">
         <v>140</v>
       </c>
@@ -4920,11 +4920,11 @@
       </c>
       <c r="M18" s="138"/>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="228" t="s">
+    <row r="19" spans="1:13" ht="16">
+      <c r="A19" s="230" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="228" t="s">
+      <c r="B19" s="230" t="s">
         <v>143</v>
       </c>
       <c r="C19" s="139" t="s">
@@ -4951,9 +4951,9 @@
       <c r="L19" s="134"/>
       <c r="M19" s="134"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="229"/>
-      <c r="B20" s="229"/>
+    <row r="20" spans="1:13" ht="16">
+      <c r="A20" s="231"/>
+      <c r="B20" s="231"/>
       <c r="C20" s="150" t="s">
         <v>146</v>
       </c>
@@ -4980,9 +4980,9 @@
       <c r="L20" s="151"/>
       <c r="M20" s="151"/>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="229"/>
-      <c r="B21" s="229"/>
+    <row r="21" spans="1:13" ht="16">
+      <c r="A21" s="231"/>
+      <c r="B21" s="231"/>
       <c r="C21" s="150" t="s">
         <v>148</v>
       </c>
@@ -5009,9 +5009,9 @@
       <c r="L21" s="151"/>
       <c r="M21" s="151"/>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="229"/>
-      <c r="B22" s="229"/>
+    <row r="22" spans="1:13" ht="16">
+      <c r="A22" s="231"/>
+      <c r="B22" s="231"/>
       <c r="C22" s="140" t="s">
         <v>150</v>
       </c>
@@ -5036,9 +5036,9 @@
       <c r="L22" s="137"/>
       <c r="M22" s="137"/>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="228"/>
-      <c r="B23" s="228"/>
+    <row r="23" spans="1:13" ht="16">
+      <c r="A23" s="230"/>
+      <c r="B23" s="230"/>
       <c r="C23" s="153" t="s">
         <v>152</v>
       </c>
@@ -5059,9 +5059,9 @@
       <c r="L23" s="154"/>
       <c r="M23" s="154"/>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="233"/>
-      <c r="B24" s="233"/>
+    <row r="24" spans="1:13" ht="16">
+      <c r="A24" s="235"/>
+      <c r="B24" s="235"/>
       <c r="C24" s="153" t="s">
         <v>154</v>
       </c>
@@ -5085,10 +5085,10 @@
       <c r="M24" s="154"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="230" t="s">
+      <c r="A25" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="230" t="s">
+      <c r="B25" s="232" t="s">
         <v>157</v>
       </c>
       <c r="C25" s="142" t="s">
@@ -5116,8 +5116,8 @@
       <c r="M25" s="142"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="231"/>
-      <c r="B26" s="231"/>
+      <c r="A26" s="233"/>
+      <c r="B26" s="233"/>
       <c r="C26" s="144" t="s">
         <v>160</v>
       </c>
@@ -5141,8 +5141,8 @@
       <c r="M26" s="144"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="231"/>
-      <c r="B27" s="231"/>
+      <c r="A27" s="233"/>
+      <c r="B27" s="233"/>
       <c r="C27" s="146" t="s">
         <v>162</v>
       </c>
@@ -5168,8 +5168,8 @@
       <c r="M27" s="146"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="231"/>
-      <c r="B28" s="231"/>
+      <c r="A28" s="233"/>
+      <c r="B28" s="233"/>
       <c r="C28" s="144" t="s">
         <v>164</v>
       </c>
@@ -5191,8 +5191,8 @@
       <c r="M28" s="144"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="231"/>
-      <c r="B29" s="231"/>
+      <c r="A29" s="233"/>
+      <c r="B29" s="233"/>
       <c r="C29" s="146" t="s">
         <v>166</v>
       </c>
@@ -5218,8 +5218,8 @@
       <c r="M29" s="146"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="232"/>
-      <c r="B30" s="232"/>
+      <c r="A30" s="234"/>
+      <c r="B30" s="234"/>
       <c r="C30" s="148" t="s">
         <v>168</v>
       </c>
@@ -5241,10 +5241,10 @@
       <c r="M30" s="148"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="230" t="s">
+      <c r="A31" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="230" t="s">
+      <c r="B31" s="232" t="s">
         <v>170</v>
       </c>
       <c r="C31" s="142" t="s">
@@ -5274,8 +5274,8 @@
       <c r="M31" s="142"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="231"/>
-      <c r="B32" s="231"/>
+      <c r="A32" s="233"/>
+      <c r="B32" s="233"/>
       <c r="C32" s="144" t="s">
         <v>148</v>
       </c>
@@ -5299,8 +5299,8 @@
       <c r="M32" s="144"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="231"/>
-      <c r="B33" s="231"/>
+      <c r="A33" s="233"/>
+      <c r="B33" s="233"/>
       <c r="C33" s="146" t="s">
         <v>173</v>
       </c>
@@ -5326,8 +5326,8 @@
       <c r="M33" s="146"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="231"/>
-      <c r="B34" s="231"/>
+      <c r="A34" s="233"/>
+      <c r="B34" s="233"/>
       <c r="C34" s="144" t="s">
         <v>164</v>
       </c>
@@ -5349,8 +5349,8 @@
       <c r="M34" s="144"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="231"/>
-      <c r="B35" s="231"/>
+      <c r="A35" s="233"/>
+      <c r="B35" s="233"/>
       <c r="C35" s="146" t="s">
         <v>174</v>
       </c>
@@ -5376,8 +5376,8 @@
       <c r="M35" s="146"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="232"/>
-      <c r="B36" s="232"/>
+      <c r="A36" s="234"/>
+      <c r="B36" s="234"/>
       <c r="C36" s="148" t="s">
         <v>168</v>
       </c>
@@ -5399,10 +5399,10 @@
       <c r="M36" s="148"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="230" t="s">
+      <c r="A37" s="232" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="230" t="s">
+      <c r="B37" s="232" t="s">
         <v>175</v>
       </c>
       <c r="C37" s="142" t="s">
@@ -5432,8 +5432,8 @@
       <c r="M37" s="142"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="231"/>
-      <c r="B38" s="231"/>
+      <c r="A38" s="233"/>
+      <c r="B38" s="233"/>
       <c r="C38" s="144" t="s">
         <v>148</v>
       </c>
@@ -5457,8 +5457,8 @@
       <c r="M38" s="144"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="232"/>
-      <c r="B39" s="232"/>
+      <c r="A39" s="234"/>
+      <c r="B39" s="234"/>
       <c r="C39" s="146" t="s">
         <v>171</v>
       </c>
@@ -5507,14 +5507,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5523,14 +5523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5539,24 +5539,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="21" t="s">
         <v>177</v>
       </c>
@@ -6011,32 +6011,32 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="168" t="s">
+      <c r="A19" s="166" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="169" t="s">
+      <c r="B19" s="167" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="170" t="str">
+      <c r="C19" s="168" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
-      <c r="D19" s="171">
+      <c r="D19" s="169">
         <v>45383</v>
       </c>
-      <c r="E19" s="171">
+      <c r="E19" s="169">
         <v>45387</v>
       </c>
-      <c r="F19" s="172">
+      <c r="F19" s="170">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="173">
+      <c r="G19" s="171">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="173" t="s">
         <v>200</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -6061,7 +6061,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="175" t="s">
+      <c r="A21" s="173" t="s">
         <v>201</v>
       </c>
       <c r="B21" s="31" t="s">
@@ -6086,7 +6086,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="173" t="s">
         <v>202</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -6111,7 +6111,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="175" t="s">
+      <c r="A23" s="173" t="s">
         <v>203</v>
       </c>
       <c r="B23" s="31" t="s">
@@ -6136,7 +6136,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="175" t="s">
+      <c r="A24" s="173" t="s">
         <v>204</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -6161,7 +6161,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="173" t="s">
         <v>205</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -6186,7 +6186,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="173" t="s">
         <v>206</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -6211,7 +6211,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="234" t="s">
+      <c r="A27" s="174" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -6423,7 +6423,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="175" t="s">
+      <c r="A35" s="173" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="31" t="s">
@@ -6448,32 +6448,32 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="173" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="167" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="170" t="str">
+      <c r="C36" s="168" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
-      <c r="D36" s="171">
+      <c r="D36" s="169">
         <v>45390</v>
       </c>
-      <c r="E36" s="171">
+      <c r="E36" s="169">
         <v>45398</v>
       </c>
-      <c r="F36" s="172">
+      <c r="F36" s="170">
         <f t="shared" ref="F36" si="2">E36-D36+1</f>
         <v>9</v>
       </c>
-      <c r="G36" s="173">
+      <c r="G36" s="171">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="175" t="s">
+      <c r="A37" s="173" t="s">
         <v>212</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -6498,7 +6498,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="236" t="s">
+      <c r="A38" s="176" t="s">
         <v>213</v>
       </c>
       <c r="B38" s="31" t="s">
@@ -6523,7 +6523,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="235" t="s">
+      <c r="A39" s="175" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="31" t="s">
@@ -6548,7 +6548,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="235" t="s">
+      <c r="A40" s="175" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="31" t="s">
@@ -6600,7 +6600,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="166" t="s">
+      <c r="A42" s="177" t="s">
         <v>214</v>
       </c>
       <c r="B42" s="31" t="s">
@@ -6625,7 +6625,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="175" t="s">
         <v>215</v>
       </c>
       <c r="B43" s="31" t="s">
@@ -6650,7 +6650,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="175" t="s">
         <v>216</v>
       </c>
       <c r="B44" s="31" t="s">
@@ -6675,32 +6675,32 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="174" t="s">
+      <c r="A45" s="172" t="s">
         <v>217</v>
       </c>
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="167" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="170" t="str">
+      <c r="C45" s="168" t="str">
         <f t="shared" si="1"/>
         <v>Not Started</v>
       </c>
-      <c r="D45" s="171">
+      <c r="D45" s="169">
         <v>45415</v>
       </c>
-      <c r="E45" s="171">
+      <c r="E45" s="169">
         <v>45426</v>
       </c>
-      <c r="F45" s="172">
+      <c r="F45" s="170">
         <f t="shared" ref="F45" si="3">E45-D45+1</f>
         <v>12</v>
       </c>
-      <c r="G45" s="173">
+      <c r="G45" s="171">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="167" t="s">
+      <c r="A46" s="172" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="31" t="s">
@@ -6725,7 +6725,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="167" t="s">
+      <c r="A47" s="172" t="s">
         <v>219</v>
       </c>
       <c r="B47" s="31" t="s">
@@ -6750,7 +6750,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="157" t="s">
+      <c r="A48" s="166" t="s">
         <v>220</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -6802,7 +6802,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="156" t="s">
+      <c r="A50" s="175" t="s">
         <v>221</v>
       </c>
       <c r="B50" s="31" t="s">
@@ -6827,7 +6827,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="156" t="s">
+      <c r="A51" s="175" t="s">
         <v>222</v>
       </c>
       <c r="B51" s="31" t="s">
@@ -6907,7 +6907,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="235" t="s">
+      <c r="A54" s="175" t="s">
         <v>225</v>
       </c>
       <c r="B54" s="31" t="s">
@@ -6932,7 +6932,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="235" t="s">
+      <c r="A55" s="175" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="31" t="s">
@@ -6957,7 +6957,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="235" t="s">
+      <c r="A56" s="175" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -6982,7 +6982,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="168" t="s">
+      <c r="A57" s="166" t="s">
         <v>226</v>
       </c>
       <c r="B57" s="31" t="s">
@@ -7007,7 +7007,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="235" t="s">
+      <c r="A58" s="175" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="31" t="s">
